--- a/report/詳細設計書/詳細設計書_I0003_メイン画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0003_メイン画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="16455" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="IE0006" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'IE0003'!$A$1:$AF$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'IE0004'!$A$1:$AF$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'IE0005'!$A$1:$AF$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'IE0003'!$A$1:$AF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'IE0004'!$A$1:$AF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'IE0005'!$A$1:$AF$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'IE0006'!$A$1:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -234,16 +234,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板_作成者</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,10 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①ボタンを押した場合、I0005に移動する。</t>
     <rPh sb="17" eb="19">
       <t>ｲﾄﾞｳ</t>
@@ -383,13 +369,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11</t>
+    <t>IE0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>①掲示板_現在リストを「1」に変更する。
 ②掲示板_最初ボタンと掲示板_前ボタンを非活性に変更する。
-③No4~8を掲示板_現在リストの該当データを表示する。</t>
+③No4~7を掲示板_現在リストの該当データを表示する。</t>
     <rPh sb="15" eb="17">
       <t>ﾍﾝｺｳ</t>
     </rPh>
@@ -408,61 +414,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>①掲示板_現在リストをー1に変更する。
+②掲示板_現在リストが「1」なら掲示板_最初ボタンと掲示板_前ボタンを非活性に変更する。
+③No4~7を掲示板_現在リストの該当データを表示する。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>①掲示板_現在リストを＋1に変更する。
 ②掲示板_現在リストが掲示板_全体リストと一致するなら掲示板_次ボタンと掲示板_最後ボタンを非活性に変更する。
-③No4~8を掲示板_現在リストの該当データを表示する。</t>
+③No4~7を掲示板_現在リストの該当データを表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①掲示板_現在リストをー1に変更する。
-②掲示板_現在リストが「1」なら掲示板_最初ボタンと掲示板_前ボタンを非活性に変更する。
-③No4~8を掲示板_現在リストの該当データを表示する。</t>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>①掲示板_現在リストを掲示板_全体リストの値に変更する。
 ②掲示板_次ボタンと掲示板_最後ボタンを非活性に変更する。
-③No4~8を掲示板_現在リストの該当データを表示する。</t>
+③No4~7を掲示板_現在リストの該当データを表示する。</t>
     <rPh sb="21" eb="22">
       <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IE0001</t>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IE0002</t>
+    <t>8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IE0004</t>
+    <t>掲示板_作成日時</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IE0005</t>
+    <t>掲示板_作成者</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IE0006</t>
+    <t>掲示板_作成者</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板_更新日時</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
+    <t>掲示板_作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板_作成者</t>
+    <rPh sb="4" eb="7">
+      <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板_更新日時</t>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
+    <t>掲示板_作成者</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2427,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -2451,7 +2463,7 @@
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2565,7 +2577,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -2617,7 +2629,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="29"/>
       <c r="M9" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
@@ -2645,7 +2657,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="29"/>
       <c r="M10" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
@@ -2662,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -2673,7 +2685,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="29"/>
       <c r="M11" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -2690,7 +2702,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -2701,7 +2713,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="29"/>
       <c r="M12" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
@@ -2713,130 +2725,131 @@
       <c r="U12" s="28"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:32">
-      <c r="C13" s="27">
+    <row r="14" spans="1:32">
+      <c r="B14" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="C15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="C16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="29"/>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="C16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="26"/>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="C17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="20" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="C19" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="100"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="C20" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="103"/>
     </row>
     <row r="21" spans="2:29">
       <c r="C21" s="101"/>
@@ -3042,66 +3055,37 @@
       <c r="AC27" s="103"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="103"/>
-    </row>
-    <row r="29" spans="2:29">
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="106"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C20:AC29"/>
+    <mergeCell ref="C19:AC28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3111,10 +3095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3135,7 +3119,7 @@
       <c r="D1" s="64"/>
       <c r="E1" s="65"/>
       <c r="F1" s="66" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -3150,7 +3134,7 @@
       <c r="O1" s="64"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -3249,7 +3233,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -3286,11 +3270,11 @@
       <c r="V8" s="88"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="C9" s="89">
-        <v>9</v>
+      <c r="C9" s="89" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -3407,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -3435,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -3458,97 +3442,98 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:29" s="10" customFormat="1">
-      <c r="C17" s="27">
-        <v>8</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30" t="s">
+    <row r="17" spans="2:29">
+      <c r="C17" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="C18" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="92"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="82" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="82" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="109"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="C21" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="112"/>
     </row>
     <row r="22" spans="2:29">
       <c r="C22" s="110"/>
@@ -3754,66 +3739,37 @@
       <c r="AC28" s="112"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="112"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="115"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:AC30"/>
+    <mergeCell ref="C20:AC29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3823,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3847,7 +3803,7 @@
       <c r="D1" s="64"/>
       <c r="E1" s="65"/>
       <c r="F1" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -3862,7 +3818,7 @@
       <c r="O1" s="64"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -3961,7 +3917,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -3999,10 +3955,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="89" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -4119,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -4147,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -4170,97 +4126,98 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:29" s="10" customFormat="1">
-      <c r="C17" s="27">
-        <v>8</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30" t="s">
+    <row r="17" spans="2:29">
+      <c r="C17" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="C18" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="92"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="82" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="82" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="117"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="C21" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="120"/>
     </row>
     <row r="22" spans="2:29">
       <c r="C22" s="118"/>
@@ -4466,66 +4423,37 @@
       <c r="AC28" s="120"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="119"/>
-      <c r="AC29" s="120"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="123"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:AC30"/>
+    <mergeCell ref="C20:AC29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4535,10 +4463,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -4559,7 +4487,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="96"/>
       <c r="F1" s="66" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -4574,7 +4502,7 @@
       <c r="O1" s="64"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -4673,7 +4601,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -4711,10 +4639,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="89" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -4725,7 +4653,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="92"/>
       <c r="M9" s="93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
@@ -4831,7 +4759,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -4859,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -4882,97 +4810,98 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:29" s="10" customFormat="1">
-      <c r="C17" s="27">
-        <v>8</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30" t="s">
+    <row r="17" spans="2:29">
+      <c r="C17" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="C18" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="92"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="82" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="82" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="117"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="C21" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="120"/>
     </row>
     <row r="22" spans="2:29">
       <c r="C22" s="118"/>
@@ -5178,66 +5107,37 @@
       <c r="AC28" s="120"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="119"/>
-      <c r="AC29" s="120"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="123"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:AC30"/>
+    <mergeCell ref="C20:AC29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5247,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -5271,7 +5171,7 @@
       <c r="D1" s="64"/>
       <c r="E1" s="65"/>
       <c r="F1" s="66" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -5286,7 +5186,7 @@
       <c r="O1" s="64"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -5385,7 +5285,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -5423,10 +5323,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -5543,7 +5443,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -5571,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -5594,97 +5494,98 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:29" s="10" customFormat="1">
-      <c r="C17" s="27">
-        <v>8</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30" t="s">
+    <row r="17" spans="2:29">
+      <c r="C17" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="C18" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="92"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="82" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="82" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="109"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="C21" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="112"/>
     </row>
     <row r="22" spans="2:29">
       <c r="C22" s="110"/>
@@ -5890,66 +5791,37 @@
       <c r="AC28" s="112"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="112"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="115"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:AC30"/>
+    <mergeCell ref="C20:AC29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5962,7 +5834,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -5983,7 +5855,7 @@
       <c r="D1" s="64"/>
       <c r="E1" s="65"/>
       <c r="F1" s="66" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
@@ -5998,7 +5870,7 @@
       <c r="O1" s="64"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -6097,7 +5969,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -6135,10 +6007,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -6229,7 +6101,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="C16" s="107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="116"/>
       <c r="E16" s="116"/>
